--- a/Механики.xlsx
+++ b/Механики.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Название</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Универсальныя лента</t>
+  </si>
+  <si>
+    <t>Самонаводящаяся ракета</t>
+  </si>
+  <si>
+    <t>Скорость поворота</t>
+  </si>
+  <si>
+    <t>Конус наведения</t>
   </si>
 </sst>
 </file>
@@ -163,10 +172,10 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,7 +565,7 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2">
@@ -577,16 +586,16 @@
       <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
         <v>3</v>
       </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -597,7 +606,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2">
         <f>D2*1.5</f>
         <v>4.5</v>
@@ -619,16 +628,16 @@
       <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -639,7 +648,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2">
         <f>D2*0.75</f>
         <v>2.25</v>
@@ -661,16 +670,16 @@
       <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -681,7 +690,7 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2">
         <f>D2*1.3</f>
         <v>3.9000000000000004</v>
@@ -703,14 +712,14 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -721,7 +730,7 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2">
         <f>D2*0.9</f>
         <v>2.7</v>
@@ -743,18 +752,18 @@
       <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -765,7 +774,7 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2">
         <f>D2*0.9*1.5</f>
         <v>4.0500000000000007</v>
@@ -787,16 +796,16 @@
       <c r="J7" s="2">
         <v>2</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -807,7 +816,7 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -828,14 +837,14 @@
       <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -844,7 +853,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2">
         <f>D2*1.2</f>
         <v>3.5999999999999996</v>
@@ -856,22 +865,22 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <f>H2*0.1</f>
-        <v>3</v>
+        <f>H2*0.9</f>
+        <v>27</v>
       </c>
       <c r="I9" s="2">
-        <f>I2*0.5</f>
-        <v>1</v>
+        <f>I2*3.5</f>
+        <v>7</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -919,6 +928,46 @@
       <c r="P10">
         <f t="shared" si="1"/>
         <v>124.91294713516936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Механики.xlsx
+++ b/Механики.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Снаряды" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 

--- a/Механики.xlsx
+++ b/Механики.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Юниты" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Снаряды" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Название</t>
   </si>
@@ -130,6 +130,150 @@
   </si>
   <si>
     <t>Конус наведения</t>
+  </si>
+  <si>
+    <t>Основное вооружение</t>
+  </si>
+  <si>
+    <t>Второстепенное вооружение</t>
+  </si>
+  <si>
+    <t>Спецспособности</t>
+  </si>
+  <si>
+    <t>Очки корпуса</t>
+  </si>
+  <si>
+    <t>Стойкость к урону</t>
+  </si>
+  <si>
+    <t>Физ.</t>
+  </si>
+  <si>
+    <t>Ен.</t>
+  </si>
+  <si>
+    <t>Взрыв.</t>
+  </si>
+  <si>
+    <t>Щит</t>
+  </si>
+  <si>
+    <t>Емкость</t>
+  </si>
+  <si>
+    <t>Скорость зарядки</t>
+  </si>
+  <si>
+    <t>Перехватчик разведки</t>
+  </si>
+  <si>
+    <t>Перехватчик диверсии</t>
+  </si>
+  <si>
+    <t>Перехватчик РЭБ</t>
+  </si>
+  <si>
+    <t>Истребитель-штурмовик</t>
+  </si>
+  <si>
+    <t>Легкий бомбардировщик</t>
+  </si>
+  <si>
+    <t>Командный истребитель</t>
+  </si>
+  <si>
+    <t>Дальнобойный корвет</t>
+  </si>
+  <si>
+    <t>Инженерный корвет</t>
+  </si>
+  <si>
+    <t>Корвет прикрытия</t>
+  </si>
+  <si>
+    <t>Дальность радара</t>
+  </si>
+  <si>
+    <t>Заметность</t>
+  </si>
+  <si>
+    <t>Сила радара</t>
+  </si>
+  <si>
+    <t>Аппарат запуска ракет</t>
+  </si>
+  <si>
+    <t>Микроварп, Усиление радара</t>
+  </si>
+  <si>
+    <t>Автопушка 2х</t>
+  </si>
+  <si>
+    <t>Плазменный аппарат 2х</t>
+  </si>
+  <si>
+    <t>Фотонный излучатель 2х</t>
+  </si>
+  <si>
+    <t>Обман системы "свой-чужой", Подавление силовых щитов.</t>
+  </si>
+  <si>
+    <t>Подавление радаров, Отключение двигателей</t>
+  </si>
+  <si>
+    <t>Пушка малого калибра 4х</t>
+  </si>
+  <si>
+    <t>Пушка среднего калибра 3х</t>
+  </si>
+  <si>
+    <t>Торпедный аппарат</t>
+  </si>
+  <si>
+    <t>Торпедный аппарат 2х</t>
+  </si>
+  <si>
+    <t>Форсаж, Училение щита.</t>
+  </si>
+  <si>
+    <t>Аппарат запуска ракет 4х</t>
+  </si>
+  <si>
+    <t>Торпедный аппарат 6х</t>
+  </si>
+  <si>
+    <t>Ракетный залп, тактическая боеголовка.</t>
+  </si>
+  <si>
+    <t>Автопушка 4х</t>
+  </si>
+  <si>
+    <t>Аппарат запуска ракет 2х</t>
+  </si>
+  <si>
+    <t>Контроль ракет, слежение за целями</t>
+  </si>
+  <si>
+    <t>Рельсовая пушка 4х</t>
+  </si>
+  <si>
+    <t>Пушка крупного калибра 6х</t>
+  </si>
+  <si>
+    <t>Самоперезарядка</t>
+  </si>
+  <si>
+    <t>Ремонт союзников, перезарядка союзников</t>
+  </si>
+  <si>
+    <t>Усиление щита, Уничтожение ракет.</t>
+  </si>
+  <si>
+    <t>Каморные</t>
+  </si>
+  <si>
+    <t>Сплошные</t>
   </si>
 </sst>
 </file>
@@ -166,13 +310,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -470,14 +629,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="9" width="13.140625" customWidth="1"/>
+    <col min="13" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>130</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>8.5</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>130</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>6.5</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7">
+        <v>3.5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>250</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>0.4</v>
+      </c>
+      <c r="M8">
+        <v>350</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>350</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3000</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>2000</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>5.5</v>
+      </c>
+      <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+      <c r="M11">
+        <v>3000</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -498,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,7 +1150,7 @@
     <col min="6" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="108" customHeight="1">
+    <row r="1" spans="1:19" ht="108" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,15 +1196,22 @@
       <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2">
@@ -592,21 +1238,24 @@
         <v>3</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2">
         <f>D2*1.5</f>
         <v>4.5</v>
@@ -630,7 +1279,7 @@
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
@@ -640,15 +1289,18 @@
       <c r="P3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2">
         <f>D2*0.75</f>
         <v>2.25</v>
@@ -679,18 +1331,16 @@
         <v>1</v>
       </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2">
         <f>D2*1.3</f>
         <v>3.9000000000000004</v>
@@ -720,17 +1370,17 @@
         <v>1</v>
       </c>
       <c r="P5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2">
         <f>D2*0.9</f>
         <v>2.7</v>
@@ -766,15 +1416,18 @@
       <c r="P6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2">
         <f>D2*0.9*1.5</f>
         <v>4.0500000000000007</v>
@@ -805,18 +1458,19 @@
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="3"/>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -846,14 +1500,14 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2">
         <f>D2*1.2</f>
         <v>3.5999999999999996</v>
@@ -882,7 +1536,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -911,15 +1565,15 @@
       </c>
       <c r="L10">
         <f>($E2*L2+$E3*L3+$E4*L4+$E5*L5+$E6*L6+$E7*L7+$E8*L8+$E9*L9)/SUM(L2:L9)</f>
-        <v>121.81069958847735</v>
+        <v>113.58024691358024</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:P10" si="1">($E2*M2+$E3*M3+$E4*M4+$E5*M5+$E6*M6+$E7*M7+$E8*M8+$E9*M9)/SUM(M2:M9)</f>
+        <f t="shared" ref="M10:R10" si="1">($E2*M2+$E3*M3+$E4*M4+$E5*M5+$E6*M6+$E7*M7+$E8*M8+$E9*M9)/SUM(M2:M9)</f>
         <v>112.83950617283951</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>151.85185185185185</v>
+        <v>148.14814814814815</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
@@ -927,10 +1581,18 @@
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>124.91294713516936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>118.1386514719848</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>124.44444444444446</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>138.27160493827159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="L12" t="s">
         <v>36</v>
       </c>
@@ -938,7 +1600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>35</v>
       </c>

--- a/Механики.xlsx
+++ b/Механики.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Юниты" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Радар" sheetId="2" r:id="rId2"/>
     <sheet name="Снаряды" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>Название</t>
   </si>
@@ -274,6 +274,54 @@
   </si>
   <si>
     <t>Сплошные</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Сила</t>
+  </si>
+  <si>
+    <t>Мин</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Скрытность</t>
+  </si>
+  <si>
+    <t>Обнаружение</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Recon</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Bomber</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Boost</t>
   </si>
 </sst>
 </file>
@@ -324,13 +372,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
@@ -631,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -644,53 +692,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1124,12 +1172,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <f>B3*1.35</f>
+        <v>1.35</v>
+      </c>
+      <c r="E3">
+        <f>B3*0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <f>C3*1.2</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D11" si="0">B4*1.35</f>
+        <v>1.08</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="1">B4*0.8</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="F4">
+        <f>C4*1.4</f>
+        <v>0.97999999999999987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F5">
+        <f>C5*1.6</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>0.45</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="F8">
+        <f>C8*1.8</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
